--- a/Code/Results/Cases/Case_0_144/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_144/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.022645876552317</v>
+        <v>1.063284187537301</v>
       </c>
       <c r="D2">
-        <v>1.037087370234724</v>
+        <v>1.073204712324558</v>
       </c>
       <c r="E2">
-        <v>1.034610217812062</v>
+        <v>1.069318210248063</v>
       </c>
       <c r="F2">
-        <v>1.042856103556559</v>
+        <v>1.081502354518122</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.056509195972503</v>
+        <v>1.044216025439591</v>
       </c>
       <c r="J2">
-        <v>1.044169725186335</v>
+        <v>1.068250355646021</v>
       </c>
       <c r="K2">
-        <v>1.048053112260368</v>
+        <v>1.075897192068898</v>
       </c>
       <c r="L2">
-        <v>1.045607549326532</v>
+        <v>1.072021038038645</v>
       </c>
       <c r="M2">
-        <v>1.053749006142092</v>
+        <v>1.084173010107884</v>
       </c>
       <c r="N2">
-        <v>1.017887878308472</v>
+        <v>1.026377243162983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.029348199485181</v>
+        <v>1.064641936880491</v>
       </c>
       <c r="D3">
-        <v>1.04326144033816</v>
+        <v>1.074506230319137</v>
       </c>
       <c r="E3">
-        <v>1.040423449231786</v>
+        <v>1.070546795250658</v>
       </c>
       <c r="F3">
-        <v>1.049258940564343</v>
+        <v>1.082866962142897</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.058517028925141</v>
+        <v>1.044501256903282</v>
       </c>
       <c r="J3">
-        <v>1.049069565677947</v>
+        <v>1.069260929125355</v>
       </c>
       <c r="K3">
-        <v>1.053369161667496</v>
+        <v>1.077014408137109</v>
       </c>
       <c r="L3">
-        <v>1.05056396641318</v>
+        <v>1.073064747482746</v>
       </c>
       <c r="M3">
-        <v>1.059298074471861</v>
+        <v>1.085354752786499</v>
       </c>
       <c r="N3">
-        <v>1.01956606831264</v>
+        <v>1.026719167937184</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.033565742912438</v>
+        <v>1.065519469045442</v>
       </c>
       <c r="D4">
-        <v>1.047151789280653</v>
+        <v>1.075347709455992</v>
       </c>
       <c r="E4">
-        <v>1.044087678374205</v>
+        <v>1.071341195705979</v>
       </c>
       <c r="F4">
-        <v>1.05329548091537</v>
+        <v>1.0837494935339</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.059762586801609</v>
+        <v>1.044683387587444</v>
       </c>
       <c r="J4">
-        <v>1.052148133129611</v>
+        <v>1.069913326073978</v>
       </c>
       <c r="K4">
-        <v>1.056712586082022</v>
+        <v>1.077736077761744</v>
       </c>
       <c r="L4">
-        <v>1.053681601533988</v>
+        <v>1.073738953239911</v>
       </c>
       <c r="M4">
-        <v>1.062790568508184</v>
+        <v>1.086118413953683</v>
       </c>
       <c r="N4">
-        <v>1.020619960648001</v>
+        <v>1.026939760598712</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.035311661610966</v>
+        <v>1.065888143057409</v>
       </c>
       <c r="D5">
-        <v>1.048763454443722</v>
+        <v>1.075701305561853</v>
       </c>
       <c r="E5">
-        <v>1.045605956404531</v>
+        <v>1.07167502686547</v>
       </c>
       <c r="F5">
-        <v>1.054968203014281</v>
+        <v>1.08412040299614</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.060273841890934</v>
+        <v>1.044759373705639</v>
       </c>
       <c r="J5">
-        <v>1.053421364074306</v>
+        <v>1.070187234766378</v>
       </c>
       <c r="K5">
-        <v>1.058096165175728</v>
+        <v>1.078039173018811</v>
       </c>
       <c r="L5">
-        <v>1.054971834983165</v>
+        <v>1.074022118349826</v>
       </c>
       <c r="M5">
-        <v>1.064236441919443</v>
+        <v>1.086439219678486</v>
       </c>
       <c r="N5">
-        <v>1.021055693965628</v>
+        <v>1.027032341736111</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.035603257230672</v>
+        <v>1.065950031066162</v>
       </c>
       <c r="D6">
-        <v>1.049032696219183</v>
+        <v>1.075760666520879</v>
       </c>
       <c r="E6">
-        <v>1.045859613723102</v>
+        <v>1.071731070772967</v>
       </c>
       <c r="F6">
-        <v>1.055247673993301</v>
+        <v>1.084182674172967</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.060358970928351</v>
+        <v>1.044772098027912</v>
       </c>
       <c r="J6">
-        <v>1.053633941919273</v>
+        <v>1.070233204274237</v>
       </c>
       <c r="K6">
-        <v>1.058327214384517</v>
+        <v>1.078090046858197</v>
       </c>
       <c r="L6">
-        <v>1.055187301268124</v>
+        <v>1.074069647210538</v>
       </c>
       <c r="M6">
-        <v>1.064477929617397</v>
+        <v>1.086493070542525</v>
       </c>
       <c r="N6">
-        <v>1.021128435502272</v>
+        <v>1.027047877394065</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.033589176784275</v>
+        <v>1.065524396225398</v>
       </c>
       <c r="D7">
-        <v>1.047173416540817</v>
+        <v>1.075352434855638</v>
       </c>
       <c r="E7">
-        <v>1.04410805132862</v>
+        <v>1.07134565690002</v>
       </c>
       <c r="F7">
-        <v>1.053317925552858</v>
+        <v>1.083754450059197</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.059769466261963</v>
+        <v>1.044684405201989</v>
       </c>
       <c r="J7">
-        <v>1.052165227326208</v>
+        <v>1.069916987462314</v>
       </c>
       <c r="K7">
-        <v>1.056731158588033</v>
+        <v>1.077740128889328</v>
       </c>
       <c r="L7">
-        <v>1.053698920658667</v>
+        <v>1.073742737967207</v>
       </c>
       <c r="M7">
-        <v>1.062809974821625</v>
+        <v>1.086122701504399</v>
       </c>
       <c r="N7">
-        <v>1.020625811281038</v>
+        <v>1.026940998284313</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.024936554633084</v>
+        <v>1.063743259565192</v>
       </c>
       <c r="D8">
-        <v>1.039196369040397</v>
+        <v>1.073644711398267</v>
       </c>
       <c r="E8">
-        <v>1.036595687643408</v>
+        <v>1.06973353750939</v>
       </c>
       <c r="F8">
-        <v>1.04504281890291</v>
+        <v>1.08196362769562</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057199151306434</v>
+        <v>1.044312925080776</v>
       </c>
       <c r="J8">
-        <v>1.045845325604978</v>
+        <v>1.068592198444845</v>
       </c>
       <c r="K8">
-        <v>1.049870338976772</v>
+        <v>1.076275019916089</v>
       </c>
       <c r="L8">
-        <v>1.047301754466488</v>
+        <v>1.072374003163168</v>
       </c>
       <c r="M8">
-        <v>1.055645358225425</v>
+        <v>1.084572595714006</v>
       </c>
       <c r="N8">
-        <v>1.018461870947755</v>
+        <v>1.026492934528058</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.008705569602126</v>
+        <v>1.060596646342874</v>
       </c>
       <c r="D9">
-        <v>1.024277814021479</v>
+        <v>1.070630042967198</v>
       </c>
       <c r="E9">
-        <v>1.022556834850754</v>
+        <v>1.066888222063316</v>
       </c>
       <c r="F9">
-        <v>1.029583139511672</v>
+        <v>1.078804275694183</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.05223617936667</v>
+        <v>1.043639654337771</v>
       </c>
       <c r="J9">
-        <v>1.033954613231906</v>
+        <v>1.066246041847401</v>
       </c>
       <c r="K9">
-        <v>1.036988908771821</v>
+        <v>1.073683642627361</v>
       </c>
       <c r="L9">
-        <v>1.035294245020101</v>
+        <v>1.069953224826274</v>
       </c>
       <c r="M9">
-        <v>1.042213815707839</v>
+        <v>1.081833264395395</v>
       </c>
       <c r="N9">
-        <v>1.014386869716396</v>
+        <v>1.025698326864108</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9971143181537082</v>
+        <v>1.058493238564244</v>
       </c>
       <c r="D10">
-        <v>1.013659263342169</v>
+        <v>1.068616383193573</v>
       </c>
       <c r="E10">
-        <v>1.012572612684407</v>
+        <v>1.064988080701654</v>
       </c>
       <c r="F10">
-        <v>1.018590293552347</v>
+        <v>1.076695325438751</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048600374719562</v>
+        <v>1.043178192236346</v>
       </c>
       <c r="J10">
-        <v>1.025442896668575</v>
+        <v>1.0646738780158</v>
       </c>
       <c r="K10">
-        <v>1.027786198706219</v>
+        <v>1.071949356602857</v>
       </c>
       <c r="L10">
-        <v>1.026718515499239</v>
+        <v>1.06833320800119</v>
       </c>
       <c r="M10">
-        <v>1.032631815424676</v>
+        <v>1.080001559191932</v>
       </c>
       <c r="N10">
-        <v>1.011468234986432</v>
+        <v>1.025165125856804</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9918843501403034</v>
+        <v>1.057581034672417</v>
       </c>
       <c r="D11">
-        <v>1.00887778606836</v>
+        <v>1.067743475378615</v>
       </c>
       <c r="E11">
-        <v>1.008078951697633</v>
+        <v>1.064164478416264</v>
       </c>
       <c r="F11">
-        <v>1.013642799177041</v>
+        <v>1.075781430062544</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046939313147623</v>
+        <v>1.042975368165945</v>
       </c>
       <c r="J11">
-        <v>1.021598690896036</v>
+        <v>1.063991159624976</v>
       </c>
       <c r="K11">
-        <v>1.023634200128742</v>
+        <v>1.071196756545122</v>
       </c>
       <c r="L11">
-        <v>1.022850102298953</v>
+        <v>1.067630218500516</v>
       </c>
       <c r="M11">
-        <v>1.02831193825821</v>
+        <v>1.079207062480211</v>
       </c>
       <c r="N11">
-        <v>1.010149883724505</v>
+        <v>1.024933409170432</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9899073021164848</v>
+        <v>1.057241983638558</v>
       </c>
       <c r="D12">
-        <v>1.007071834768033</v>
+        <v>1.067419086883225</v>
       </c>
       <c r="E12">
-        <v>1.006382058234152</v>
+        <v>1.063858427324204</v>
       </c>
       <c r="F12">
-        <v>1.01177451841695</v>
+        <v>1.075441857925989</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046308406938644</v>
+        <v>1.042899577082566</v>
       </c>
       <c r="J12">
-        <v>1.020145031379727</v>
+        <v>1.063737269212264</v>
       </c>
       <c r="K12">
-        <v>1.022064792237692</v>
+        <v>1.070916956522845</v>
       </c>
       <c r="L12">
-        <v>1.021388001047176</v>
+        <v>1.067368866071941</v>
       </c>
       <c r="M12">
-        <v>1.026679561256278</v>
+        <v>1.078911743074227</v>
       </c>
       <c r="N12">
-        <v>1.009651348402226</v>
+        <v>1.024847212301132</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9903329897501648</v>
+        <v>1.057314721183283</v>
       </c>
       <c r="D13">
-        <v>1.007460610531716</v>
+        <v>1.067488676251813</v>
       </c>
       <c r="E13">
-        <v>1.006747340390381</v>
+        <v>1.063924082204167</v>
       </c>
       <c r="F13">
-        <v>1.012176695301901</v>
+        <v>1.075514702386303</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046444383389097</v>
+        <v>1.042915855055983</v>
       </c>
       <c r="J13">
-        <v>1.020458044900005</v>
+        <v>1.063791743132013</v>
       </c>
       <c r="K13">
-        <v>1.022402700706947</v>
+        <v>1.070976985994271</v>
       </c>
       <c r="L13">
-        <v>1.021702800064105</v>
+        <v>1.067424937560818</v>
       </c>
       <c r="M13">
-        <v>1.027031005595585</v>
+        <v>1.078975099567173</v>
       </c>
       <c r="N13">
-        <v>1.009758697136613</v>
+        <v>1.024865707587535</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9917216454677108</v>
+        <v>1.057553013084439</v>
       </c>
       <c r="D14">
-        <v>1.008729129828101</v>
+        <v>1.067716664444251</v>
       </c>
       <c r="E14">
-        <v>1.007939265266266</v>
+        <v>1.064139182783109</v>
       </c>
       <c r="F14">
-        <v>1.013489004733302</v>
+        <v>1.07575336320904</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046887451551432</v>
+        <v>1.042969112503844</v>
       </c>
       <c r="J14">
-        <v>1.021479068174126</v>
+        <v>1.063970179073567</v>
       </c>
       <c r="K14">
-        <v>1.023505039391682</v>
+        <v>1.071173633328802</v>
       </c>
       <c r="L14">
-        <v>1.022729770419519</v>
+        <v>1.06760861975778</v>
       </c>
       <c r="M14">
-        <v>1.028177585346378</v>
+        <v>1.079182655552495</v>
       </c>
       <c r="N14">
-        <v>1.010108858976349</v>
+        <v>1.024926286707582</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9925725962278195</v>
+        <v>1.057699803554642</v>
       </c>
       <c r="D15">
-        <v>1.009506670837911</v>
+        <v>1.067857115262957</v>
       </c>
       <c r="E15">
-        <v>1.008669904412697</v>
+        <v>1.064271696195397</v>
       </c>
       <c r="F15">
-        <v>1.014293436142747</v>
+        <v>1.075900395210318</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047158568600103</v>
+        <v>1.043001866083989</v>
       </c>
       <c r="J15">
-        <v>1.02210468076454</v>
+        <v>1.064080079691356</v>
       </c>
       <c r="K15">
-        <v>1.024180560725886</v>
+        <v>1.071294760879998</v>
       </c>
       <c r="L15">
-        <v>1.023359120808627</v>
+        <v>1.067721761722401</v>
       </c>
       <c r="M15">
-        <v>1.028880281987164</v>
+        <v>1.079310509963722</v>
       </c>
       <c r="N15">
-        <v>1.010323413227928</v>
+        <v>1.024963594641187</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9974567456196104</v>
+        <v>1.05855374827252</v>
       </c>
       <c r="D16">
-        <v>1.013972534646614</v>
+        <v>1.06867429418665</v>
       </c>
       <c r="E16">
-        <v>1.01286707402566</v>
+        <v>1.065042722671247</v>
       </c>
       <c r="F16">
-        <v>1.018914493903746</v>
+        <v>1.076755962395691</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048708713387027</v>
+        <v>1.043191589518945</v>
       </c>
       <c r="J16">
-        <v>1.02569452347398</v>
+        <v>1.064719146147819</v>
       </c>
       <c r="K16">
-        <v>1.028058060985554</v>
+        <v>1.071999269234433</v>
       </c>
       <c r="L16">
-        <v>1.026971824691495</v>
+        <v>1.068379830934655</v>
       </c>
       <c r="M16">
-        <v>1.03291473717572</v>
+        <v>1.080054258390303</v>
       </c>
       <c r="N16">
-        <v>1.011554526758069</v>
+        <v>1.025180486390093</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.000462159409237</v>
+        <v>1.059089022753854</v>
       </c>
       <c r="D17">
-        <v>1.016723149394418</v>
+        <v>1.069186623468274</v>
       </c>
       <c r="E17">
-        <v>1.015452781045046</v>
+        <v>1.065526142534002</v>
       </c>
       <c r="F17">
-        <v>1.021761354174331</v>
+        <v>1.07729244481024</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049657264203403</v>
+        <v>1.043309791806242</v>
       </c>
       <c r="J17">
-        <v>1.027902589090438</v>
+        <v>1.065119487960754</v>
       </c>
       <c r="K17">
-        <v>1.030444179907342</v>
+        <v>1.072440746052162</v>
       </c>
       <c r="L17">
-        <v>1.029195185380288</v>
+        <v>1.068792213057546</v>
       </c>
       <c r="M17">
-        <v>1.035398291226728</v>
+        <v>1.080520426069813</v>
       </c>
       <c r="N17">
-        <v>1.01231173175515</v>
+        <v>1.025316311882192</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.002195019404977</v>
+        <v>1.059401103196398</v>
       </c>
       <c r="D18">
-        <v>1.018309993992564</v>
+        <v>1.069485362233437</v>
       </c>
       <c r="E18">
-        <v>1.016944693481148</v>
+        <v>1.065808033495928</v>
       </c>
       <c r="F18">
-        <v>1.023403961721997</v>
+        <v>1.077605298123436</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.05020223396329</v>
+        <v>1.043378447066805</v>
       </c>
       <c r="J18">
-        <v>1.029175357260685</v>
+        <v>1.065352811609086</v>
       </c>
       <c r="K18">
-        <v>1.031819984464399</v>
+        <v>1.072698093783721</v>
       </c>
       <c r="L18">
-        <v>1.030477211949594</v>
+        <v>1.06903260298764</v>
       </c>
       <c r="M18">
-        <v>1.036830581199925</v>
+        <v>1.080792203215479</v>
       </c>
       <c r="N18">
-        <v>1.012748179215581</v>
+        <v>1.02539545590498</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.002782540234334</v>
+        <v>1.059507491638451</v>
       </c>
       <c r="D19">
-        <v>1.018848157650159</v>
+        <v>1.069587208581875</v>
       </c>
       <c r="E19">
-        <v>1.017450695744284</v>
+        <v>1.065904137638363</v>
       </c>
       <c r="F19">
-        <v>1.023961077440703</v>
+        <v>1.077711961657092</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050386671303538</v>
+        <v>1.043401807563077</v>
       </c>
       <c r="J19">
-        <v>1.029606822035589</v>
+        <v>1.065432337006331</v>
       </c>
       <c r="K19">
-        <v>1.032286446770441</v>
+        <v>1.072785815993121</v>
       </c>
       <c r="L19">
-        <v>1.030911890132182</v>
+        <v>1.06911454516003</v>
       </c>
       <c r="M19">
-        <v>1.037316246575944</v>
+        <v>1.080884850176812</v>
       </c>
       <c r="N19">
-        <v>1.012896129929112</v>
+        <v>1.025422428321437</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.000141809527745</v>
+        <v>1.059031606986444</v>
       </c>
       <c r="D20">
-        <v>1.016429864872599</v>
+        <v>1.069131665166004</v>
       </c>
       <c r="E20">
-        <v>1.015177058479573</v>
+        <v>1.065474284428559</v>
       </c>
       <c r="F20">
-        <v>1.021457782736829</v>
+        <v>1.077234892372505</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049556358652323</v>
+        <v>1.043297139839186</v>
       </c>
       <c r="J20">
-        <v>1.027667265749787</v>
+        <v>1.065076554646342</v>
       </c>
       <c r="K20">
-        <v>1.030189838748945</v>
+        <v>1.072393396164427</v>
       </c>
       <c r="L20">
-        <v>1.028958186008121</v>
+        <v>1.068747983445311</v>
       </c>
       <c r="M20">
-        <v>1.03513353251793</v>
+        <v>1.080470424227165</v>
       </c>
       <c r="N20">
-        <v>1.012231034903627</v>
+        <v>1.025301747447481</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9913136941883574</v>
+        <v>1.057482848117184</v>
       </c>
       <c r="D21">
-        <v>1.008356427791274</v>
+        <v>1.06764953182674</v>
       </c>
       <c r="E21">
-        <v>1.007589057516039</v>
+        <v>1.064075844604693</v>
       </c>
       <c r="F21">
-        <v>1.013103426512406</v>
+        <v>1.075683086638539</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046757370715558</v>
+        <v>1.042953442033606</v>
       </c>
       <c r="J21">
-        <v>1.021179129687536</v>
+        <v>1.06391764240407</v>
       </c>
       <c r="K21">
-        <v>1.023181195873809</v>
+        <v>1.071115732547459</v>
       </c>
       <c r="L21">
-        <v>1.022428065286683</v>
+        <v>1.067554536331069</v>
       </c>
       <c r="M21">
-        <v>1.02784073136978</v>
+        <v>1.079121541262314</v>
       </c>
       <c r="N21">
-        <v>1.01000599463521</v>
+        <v>1.024908451181478</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9855624587185087</v>
+        <v>1.056507818591015</v>
       </c>
       <c r="D22">
-        <v>1.00310600697911</v>
+        <v>1.066716776041857</v>
       </c>
       <c r="E22">
-        <v>1.00265639183011</v>
+        <v>1.06319584430403</v>
       </c>
       <c r="F22">
-        <v>1.00767250171717</v>
+        <v>1.074706761970877</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044916519497488</v>
+        <v>1.042734722898241</v>
       </c>
       <c r="J22">
-        <v>1.016949674354806</v>
+        <v>1.063187259912786</v>
       </c>
       <c r="K22">
-        <v>1.018616183361622</v>
+        <v>1.070310961346156</v>
       </c>
       <c r="L22">
-        <v>1.018175408118164</v>
+        <v>1.06680283139366</v>
       </c>
       <c r="M22">
-        <v>1.023093481894284</v>
+        <v>1.078272239759763</v>
       </c>
       <c r="N22">
-        <v>1.008555497378538</v>
+        <v>1.024660434968086</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9886313122784529</v>
+        <v>1.057024821750628</v>
       </c>
       <c r="D23">
-        <v>1.005906725067325</v>
+        <v>1.067211332416021</v>
       </c>
       <c r="E23">
-        <v>1.005287409004053</v>
+        <v>1.063662421156557</v>
       </c>
       <c r="F23">
-        <v>1.010569301868312</v>
+        <v>1.075224392636663</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045900391224006</v>
+        <v>1.042850919083668</v>
       </c>
       <c r="J23">
-        <v>1.019206720275881</v>
+        <v>1.063574614587824</v>
       </c>
       <c r="K23">
-        <v>1.021051948130858</v>
+        <v>1.070737724908126</v>
       </c>
       <c r="L23">
-        <v>1.020444442486163</v>
+        <v>1.067201452425957</v>
       </c>
       <c r="M23">
-        <v>1.025626216200877</v>
+        <v>1.078722586205044</v>
       </c>
       <c r="N23">
-        <v>1.009329552371258</v>
+        <v>1.02479198315255</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.000286623908452</v>
+        <v>1.059057551120537</v>
       </c>
       <c r="D24">
-        <v>1.016562441563572</v>
+        <v>1.069156498748108</v>
       </c>
       <c r="E24">
-        <v>1.015301695810827</v>
+        <v>1.065497717120169</v>
       </c>
       <c r="F24">
-        <v>1.021595008797204</v>
+        <v>1.077260898051076</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049601979123341</v>
+        <v>1.043302857614918</v>
       </c>
       <c r="J24">
-        <v>1.027773644941659</v>
+        <v>1.065095954946737</v>
       </c>
       <c r="K24">
-        <v>1.030304813795689</v>
+        <v>1.072414792029234</v>
       </c>
       <c r="L24">
-        <v>1.029065321486655</v>
+        <v>1.068767969352888</v>
       </c>
       <c r="M24">
-        <v>1.035253215874424</v>
+        <v>1.0804930183108</v>
       </c>
       <c r="N24">
-        <v>1.012267514412961</v>
+        <v>1.025308328737871</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.013028817648987</v>
+        <v>1.06141109986818</v>
       </c>
       <c r="D25">
-        <v>1.028245800511489</v>
+        <v>1.071410074633784</v>
       </c>
       <c r="E25">
-        <v>1.026289514514098</v>
+        <v>1.067624364784374</v>
       </c>
       <c r="F25">
-        <v>1.033693180889112</v>
+        <v>1.079621505451325</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053574066677474</v>
+        <v>1.043815930061817</v>
       </c>
       <c r="J25">
-        <v>1.03712552729458</v>
+        <v>1.066853986290042</v>
       </c>
       <c r="K25">
-        <v>1.040420907854226</v>
+        <v>1.074354742064357</v>
       </c>
       <c r="L25">
-        <v>1.03849298074994</v>
+        <v>1.070580126900414</v>
       </c>
       <c r="M25">
-        <v>1.045790037187131</v>
+        <v>1.082542398459031</v>
       </c>
       <c r="N25">
-        <v>1.015473895423244</v>
+        <v>1.025904357926871</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_144/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_144/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.063284187537301</v>
+        <v>1.022645876552317</v>
       </c>
       <c r="D2">
-        <v>1.073204712324558</v>
+        <v>1.037087370234724</v>
       </c>
       <c r="E2">
-        <v>1.069318210248063</v>
+        <v>1.034610217812061</v>
       </c>
       <c r="F2">
-        <v>1.081502354518122</v>
+        <v>1.042856103556559</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044216025439591</v>
+        <v>1.056509195972503</v>
       </c>
       <c r="J2">
-        <v>1.068250355646021</v>
+        <v>1.044169725186335</v>
       </c>
       <c r="K2">
-        <v>1.075897192068898</v>
+        <v>1.048053112260368</v>
       </c>
       <c r="L2">
-        <v>1.072021038038645</v>
+        <v>1.045607549326532</v>
       </c>
       <c r="M2">
-        <v>1.084173010107884</v>
+        <v>1.053749006142091</v>
       </c>
       <c r="N2">
-        <v>1.026377243162983</v>
+        <v>1.017887878308472</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.064641936880491</v>
+        <v>1.029348199485182</v>
       </c>
       <c r="D3">
-        <v>1.074506230319137</v>
+        <v>1.043261440338162</v>
       </c>
       <c r="E3">
-        <v>1.070546795250658</v>
+        <v>1.040423449231787</v>
       </c>
       <c r="F3">
-        <v>1.082866962142897</v>
+        <v>1.049258940564345</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044501256903282</v>
+        <v>1.058517028925142</v>
       </c>
       <c r="J3">
-        <v>1.069260929125355</v>
+        <v>1.049069565677949</v>
       </c>
       <c r="K3">
-        <v>1.077014408137109</v>
+        <v>1.053369161667497</v>
       </c>
       <c r="L3">
-        <v>1.073064747482746</v>
+        <v>1.050563966413181</v>
       </c>
       <c r="M3">
-        <v>1.085354752786499</v>
+        <v>1.059298074471862</v>
       </c>
       <c r="N3">
-        <v>1.026719167937184</v>
+        <v>1.01956606831264</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.065519469045442</v>
+        <v>1.03356574291244</v>
       </c>
       <c r="D4">
-        <v>1.075347709455992</v>
+        <v>1.047151789280654</v>
       </c>
       <c r="E4">
-        <v>1.071341195705979</v>
+        <v>1.044087678374207</v>
       </c>
       <c r="F4">
-        <v>1.0837494935339</v>
+        <v>1.053295480915373</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044683387587444</v>
+        <v>1.05976258680161</v>
       </c>
       <c r="J4">
-        <v>1.069913326073978</v>
+        <v>1.052148133129614</v>
       </c>
       <c r="K4">
-        <v>1.077736077761744</v>
+        <v>1.056712586082024</v>
       </c>
       <c r="L4">
-        <v>1.073738953239911</v>
+        <v>1.05368160153399</v>
       </c>
       <c r="M4">
-        <v>1.086118413953683</v>
+        <v>1.062790568508186</v>
       </c>
       <c r="N4">
-        <v>1.026939760598712</v>
+        <v>1.020619960648002</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.065888143057409</v>
+        <v>1.035311661610966</v>
       </c>
       <c r="D5">
-        <v>1.075701305561853</v>
+        <v>1.048763454443723</v>
       </c>
       <c r="E5">
-        <v>1.07167502686547</v>
+        <v>1.045605956404531</v>
       </c>
       <c r="F5">
-        <v>1.08412040299614</v>
+        <v>1.054968203014282</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044759373705639</v>
+        <v>1.060273841890935</v>
       </c>
       <c r="J5">
-        <v>1.070187234766378</v>
+        <v>1.053421364074306</v>
       </c>
       <c r="K5">
-        <v>1.078039173018811</v>
+        <v>1.058096165175729</v>
       </c>
       <c r="L5">
-        <v>1.074022118349826</v>
+        <v>1.054971834983166</v>
       </c>
       <c r="M5">
-        <v>1.086439219678486</v>
+        <v>1.064236441919443</v>
       </c>
       <c r="N5">
-        <v>1.027032341736111</v>
+        <v>1.021055693965628</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.065950031066162</v>
+        <v>1.035603257230672</v>
       </c>
       <c r="D6">
-        <v>1.075760666520879</v>
+        <v>1.049032696219183</v>
       </c>
       <c r="E6">
-        <v>1.071731070772967</v>
+        <v>1.045859613723102</v>
       </c>
       <c r="F6">
-        <v>1.084182674172967</v>
+        <v>1.055247673993301</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044772098027912</v>
+        <v>1.060358970928351</v>
       </c>
       <c r="J6">
-        <v>1.070233204274237</v>
+        <v>1.053633941919273</v>
       </c>
       <c r="K6">
-        <v>1.078090046858197</v>
+        <v>1.058327214384517</v>
       </c>
       <c r="L6">
-        <v>1.074069647210538</v>
+        <v>1.055187301268124</v>
       </c>
       <c r="M6">
-        <v>1.086493070542525</v>
+        <v>1.064477929617397</v>
       </c>
       <c r="N6">
-        <v>1.027047877394065</v>
+        <v>1.021128435502272</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.065524396225398</v>
+        <v>1.033589176784273</v>
       </c>
       <c r="D7">
-        <v>1.075352434855638</v>
+        <v>1.047173416540815</v>
       </c>
       <c r="E7">
-        <v>1.07134565690002</v>
+        <v>1.044108051328618</v>
       </c>
       <c r="F7">
-        <v>1.083754450059197</v>
+        <v>1.053317925552857</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044684405201989</v>
+        <v>1.059769466261963</v>
       </c>
       <c r="J7">
-        <v>1.069916987462314</v>
+        <v>1.052165227326207</v>
       </c>
       <c r="K7">
-        <v>1.077740128889328</v>
+        <v>1.056731158588031</v>
       </c>
       <c r="L7">
-        <v>1.073742737967207</v>
+        <v>1.053698920658666</v>
       </c>
       <c r="M7">
-        <v>1.086122701504399</v>
+        <v>1.062809974821623</v>
       </c>
       <c r="N7">
-        <v>1.026940998284313</v>
+        <v>1.020625811281037</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.063743259565192</v>
+        <v>1.024936554633086</v>
       </c>
       <c r="D8">
-        <v>1.073644711398267</v>
+        <v>1.039196369040399</v>
       </c>
       <c r="E8">
-        <v>1.06973353750939</v>
+        <v>1.03659568764341</v>
       </c>
       <c r="F8">
-        <v>1.08196362769562</v>
+        <v>1.045042818902912</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044312925080776</v>
+        <v>1.057199151306434</v>
       </c>
       <c r="J8">
-        <v>1.068592198444845</v>
+        <v>1.04584532560498</v>
       </c>
       <c r="K8">
-        <v>1.076275019916089</v>
+        <v>1.049870338976773</v>
       </c>
       <c r="L8">
-        <v>1.072374003163168</v>
+        <v>1.047301754466489</v>
       </c>
       <c r="M8">
-        <v>1.084572595714006</v>
+        <v>1.055645358225426</v>
       </c>
       <c r="N8">
-        <v>1.026492934528058</v>
+        <v>1.018461870947756</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.060596646342874</v>
+        <v>1.008705569602126</v>
       </c>
       <c r="D9">
-        <v>1.070630042967198</v>
+        <v>1.024277814021479</v>
       </c>
       <c r="E9">
-        <v>1.066888222063316</v>
+        <v>1.022556834850754</v>
       </c>
       <c r="F9">
-        <v>1.078804275694183</v>
+        <v>1.029583139511672</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043639654337771</v>
+        <v>1.05223617936667</v>
       </c>
       <c r="J9">
-        <v>1.066246041847401</v>
+        <v>1.033954613231907</v>
       </c>
       <c r="K9">
-        <v>1.073683642627361</v>
+        <v>1.036988908771822</v>
       </c>
       <c r="L9">
-        <v>1.069953224826274</v>
+        <v>1.035294245020101</v>
       </c>
       <c r="M9">
-        <v>1.081833264395395</v>
+        <v>1.042213815707839</v>
       </c>
       <c r="N9">
-        <v>1.025698326864108</v>
+        <v>1.014386869716396</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.058493238564244</v>
+        <v>0.9971143181537063</v>
       </c>
       <c r="D10">
-        <v>1.068616383193573</v>
+        <v>1.013659263342167</v>
       </c>
       <c r="E10">
-        <v>1.064988080701654</v>
+        <v>1.012572612684405</v>
       </c>
       <c r="F10">
-        <v>1.076695325438751</v>
+        <v>1.018590293552345</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043178192236346</v>
+        <v>1.048600374719562</v>
       </c>
       <c r="J10">
-        <v>1.0646738780158</v>
+        <v>1.025442896668573</v>
       </c>
       <c r="K10">
-        <v>1.071949356602857</v>
+        <v>1.027786198706217</v>
       </c>
       <c r="L10">
-        <v>1.06833320800119</v>
+        <v>1.026718515499237</v>
       </c>
       <c r="M10">
-        <v>1.080001559191932</v>
+        <v>1.032631815424674</v>
       </c>
       <c r="N10">
-        <v>1.025165125856804</v>
+        <v>1.011468234986432</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.057581034672417</v>
+        <v>0.9918843501403016</v>
       </c>
       <c r="D11">
-        <v>1.067743475378615</v>
+        <v>1.008877786068358</v>
       </c>
       <c r="E11">
-        <v>1.064164478416264</v>
+        <v>1.008078951697631</v>
       </c>
       <c r="F11">
-        <v>1.075781430062544</v>
+        <v>1.013642799177039</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042975368165945</v>
+        <v>1.046939313147623</v>
       </c>
       <c r="J11">
-        <v>1.063991159624976</v>
+        <v>1.021598690896035</v>
       </c>
       <c r="K11">
-        <v>1.071196756545122</v>
+        <v>1.02363420012874</v>
       </c>
       <c r="L11">
-        <v>1.067630218500516</v>
+        <v>1.022850102298952</v>
       </c>
       <c r="M11">
-        <v>1.079207062480211</v>
+        <v>1.028311938258208</v>
       </c>
       <c r="N11">
-        <v>1.024933409170432</v>
+        <v>1.010149883724504</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.057241983638558</v>
+        <v>0.9899073021164851</v>
       </c>
       <c r="D12">
-        <v>1.067419086883225</v>
+        <v>1.007071834768034</v>
       </c>
       <c r="E12">
-        <v>1.063858427324204</v>
+        <v>1.006382058234152</v>
       </c>
       <c r="F12">
-        <v>1.075441857925989</v>
+        <v>1.011774518416951</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042899577082566</v>
+        <v>1.046308406938644</v>
       </c>
       <c r="J12">
-        <v>1.063737269212264</v>
+        <v>1.020145031379727</v>
       </c>
       <c r="K12">
-        <v>1.070916956522845</v>
+        <v>1.022064792237693</v>
       </c>
       <c r="L12">
-        <v>1.067368866071941</v>
+        <v>1.021388001047177</v>
       </c>
       <c r="M12">
-        <v>1.078911743074227</v>
+        <v>1.026679561256279</v>
       </c>
       <c r="N12">
-        <v>1.024847212301132</v>
+        <v>1.009651348402226</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.057314721183283</v>
+        <v>0.9903329897501673</v>
       </c>
       <c r="D13">
-        <v>1.067488676251813</v>
+        <v>1.007460610531718</v>
       </c>
       <c r="E13">
-        <v>1.063924082204167</v>
+        <v>1.006747340390383</v>
       </c>
       <c r="F13">
-        <v>1.075514702386303</v>
+        <v>1.012176695301903</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042915855055983</v>
+        <v>1.046444383389098</v>
       </c>
       <c r="J13">
-        <v>1.063791743132013</v>
+        <v>1.020458044900007</v>
       </c>
       <c r="K13">
-        <v>1.070976985994271</v>
+        <v>1.022402700706949</v>
       </c>
       <c r="L13">
-        <v>1.067424937560818</v>
+        <v>1.021702800064106</v>
       </c>
       <c r="M13">
-        <v>1.078975099567173</v>
+        <v>1.027031005595587</v>
       </c>
       <c r="N13">
-        <v>1.024865707587535</v>
+        <v>1.009758697136614</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.057553013084439</v>
+        <v>0.9917216454677108</v>
       </c>
       <c r="D14">
-        <v>1.067716664444251</v>
+        <v>1.008729129828101</v>
       </c>
       <c r="E14">
-        <v>1.064139182783109</v>
+        <v>1.007939265266266</v>
       </c>
       <c r="F14">
-        <v>1.07575336320904</v>
+        <v>1.013489004733301</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042969112503844</v>
+        <v>1.046887451551432</v>
       </c>
       <c r="J14">
-        <v>1.063970179073567</v>
+        <v>1.021479068174126</v>
       </c>
       <c r="K14">
-        <v>1.071173633328802</v>
+        <v>1.023505039391681</v>
       </c>
       <c r="L14">
-        <v>1.06760861975778</v>
+        <v>1.022729770419519</v>
       </c>
       <c r="M14">
-        <v>1.079182655552495</v>
+        <v>1.028177585346377</v>
       </c>
       <c r="N14">
-        <v>1.024926286707582</v>
+        <v>1.010108858976349</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.057699803554642</v>
+        <v>0.9925725962278182</v>
       </c>
       <c r="D15">
-        <v>1.067857115262957</v>
+        <v>1.00950667083791</v>
       </c>
       <c r="E15">
-        <v>1.064271696195397</v>
+        <v>1.008669904412696</v>
       </c>
       <c r="F15">
-        <v>1.075900395210318</v>
+        <v>1.014293436142746</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043001866083989</v>
+        <v>1.047158568600102</v>
       </c>
       <c r="J15">
-        <v>1.064080079691356</v>
+        <v>1.022104680764539</v>
       </c>
       <c r="K15">
-        <v>1.071294760879998</v>
+        <v>1.024180560725884</v>
       </c>
       <c r="L15">
-        <v>1.067721761722401</v>
+        <v>1.023359120808626</v>
       </c>
       <c r="M15">
-        <v>1.079310509963722</v>
+        <v>1.028880281987163</v>
       </c>
       <c r="N15">
-        <v>1.024963594641187</v>
+        <v>1.010323413227927</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.05855374827252</v>
+        <v>0.9974567456196096</v>
       </c>
       <c r="D16">
-        <v>1.06867429418665</v>
+        <v>1.013972534646613</v>
       </c>
       <c r="E16">
-        <v>1.065042722671247</v>
+        <v>1.012867074025659</v>
       </c>
       <c r="F16">
-        <v>1.076755962395691</v>
+        <v>1.018914493903745</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043191589518945</v>
+        <v>1.048708713387027</v>
       </c>
       <c r="J16">
-        <v>1.064719146147819</v>
+        <v>1.02569452347398</v>
       </c>
       <c r="K16">
-        <v>1.071999269234433</v>
+        <v>1.028058060985553</v>
       </c>
       <c r="L16">
-        <v>1.068379830934655</v>
+        <v>1.026971824691495</v>
       </c>
       <c r="M16">
-        <v>1.080054258390303</v>
+        <v>1.032914737175719</v>
       </c>
       <c r="N16">
-        <v>1.025180486390093</v>
+        <v>1.011554526758069</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.059089022753854</v>
+        <v>1.000462159409236</v>
       </c>
       <c r="D17">
-        <v>1.069186623468274</v>
+        <v>1.016723149394418</v>
       </c>
       <c r="E17">
-        <v>1.065526142534002</v>
+        <v>1.015452781045045</v>
       </c>
       <c r="F17">
-        <v>1.07729244481024</v>
+        <v>1.02176135417433</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043309791806242</v>
+        <v>1.049657264203403</v>
       </c>
       <c r="J17">
-        <v>1.065119487960754</v>
+        <v>1.027902589090437</v>
       </c>
       <c r="K17">
-        <v>1.072440746052162</v>
+        <v>1.030444179907341</v>
       </c>
       <c r="L17">
-        <v>1.068792213057546</v>
+        <v>1.029195185380287</v>
       </c>
       <c r="M17">
-        <v>1.080520426069813</v>
+        <v>1.035398291226727</v>
       </c>
       <c r="N17">
-        <v>1.025316311882192</v>
+        <v>1.012311731755149</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.059401103196398</v>
+        <v>1.002195019404976</v>
       </c>
       <c r="D18">
-        <v>1.069485362233437</v>
+        <v>1.018309993992564</v>
       </c>
       <c r="E18">
-        <v>1.065808033495928</v>
+        <v>1.016944693481147</v>
       </c>
       <c r="F18">
-        <v>1.077605298123436</v>
+        <v>1.023403961721997</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043378447066805</v>
+        <v>1.05020223396329</v>
       </c>
       <c r="J18">
-        <v>1.065352811609086</v>
+        <v>1.029175357260684</v>
       </c>
       <c r="K18">
-        <v>1.072698093783721</v>
+        <v>1.031819984464398</v>
       </c>
       <c r="L18">
-        <v>1.06903260298764</v>
+        <v>1.030477211949594</v>
       </c>
       <c r="M18">
-        <v>1.080792203215479</v>
+        <v>1.036830581199925</v>
       </c>
       <c r="N18">
-        <v>1.02539545590498</v>
+        <v>1.01274817921558</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.059507491638451</v>
+        <v>1.002782540234333</v>
       </c>
       <c r="D19">
-        <v>1.069587208581875</v>
+        <v>1.018848157650157</v>
       </c>
       <c r="E19">
-        <v>1.065904137638363</v>
+        <v>1.017450695744283</v>
       </c>
       <c r="F19">
-        <v>1.077711961657092</v>
+        <v>1.023961077440701</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043401807563077</v>
+        <v>1.050386671303537</v>
       </c>
       <c r="J19">
-        <v>1.065432337006331</v>
+        <v>1.029606822035587</v>
       </c>
       <c r="K19">
-        <v>1.072785815993121</v>
+        <v>1.032286446770439</v>
       </c>
       <c r="L19">
-        <v>1.06911454516003</v>
+        <v>1.03091189013218</v>
       </c>
       <c r="M19">
-        <v>1.080884850176812</v>
+        <v>1.037316246575942</v>
       </c>
       <c r="N19">
-        <v>1.025422428321437</v>
+        <v>1.012896129929111</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.059031606986444</v>
+        <v>1.000141809527745</v>
       </c>
       <c r="D20">
-        <v>1.069131665166004</v>
+        <v>1.016429864872598</v>
       </c>
       <c r="E20">
-        <v>1.065474284428559</v>
+        <v>1.015177058479572</v>
       </c>
       <c r="F20">
-        <v>1.077234892372505</v>
+        <v>1.021457782736829</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043297139839186</v>
+        <v>1.049556358652322</v>
       </c>
       <c r="J20">
-        <v>1.065076554646342</v>
+        <v>1.027667265749787</v>
       </c>
       <c r="K20">
-        <v>1.072393396164427</v>
+        <v>1.030189838748944</v>
       </c>
       <c r="L20">
-        <v>1.068747983445311</v>
+        <v>1.02895818600812</v>
       </c>
       <c r="M20">
-        <v>1.080470424227165</v>
+        <v>1.035133532517929</v>
       </c>
       <c r="N20">
-        <v>1.025301747447481</v>
+        <v>1.012231034903627</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.057482848117184</v>
+        <v>0.9913136941883574</v>
       </c>
       <c r="D21">
-        <v>1.06764953182674</v>
+        <v>1.008356427791273</v>
       </c>
       <c r="E21">
-        <v>1.064075844604693</v>
+        <v>1.007589057516038</v>
       </c>
       <c r="F21">
-        <v>1.075683086638539</v>
+        <v>1.013103426512406</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042953442033606</v>
+        <v>1.046757370715558</v>
       </c>
       <c r="J21">
-        <v>1.06391764240407</v>
+        <v>1.021179129687536</v>
       </c>
       <c r="K21">
-        <v>1.071115732547459</v>
+        <v>1.023181195873808</v>
       </c>
       <c r="L21">
-        <v>1.067554536331069</v>
+        <v>1.022428065286683</v>
       </c>
       <c r="M21">
-        <v>1.079121541262314</v>
+        <v>1.02784073136978</v>
       </c>
       <c r="N21">
-        <v>1.024908451181478</v>
+        <v>1.01000599463521</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.056507818591015</v>
+        <v>0.9855624587185109</v>
       </c>
       <c r="D22">
-        <v>1.066716776041857</v>
+        <v>1.003106006979112</v>
       </c>
       <c r="E22">
-        <v>1.06319584430403</v>
+        <v>1.002656391830112</v>
       </c>
       <c r="F22">
-        <v>1.074706761970877</v>
+        <v>1.007672501717173</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042734722898241</v>
+        <v>1.044916519497488</v>
       </c>
       <c r="J22">
-        <v>1.063187259912786</v>
+        <v>1.016949674354808</v>
       </c>
       <c r="K22">
-        <v>1.070310961346156</v>
+        <v>1.018616183361625</v>
       </c>
       <c r="L22">
-        <v>1.06680283139366</v>
+        <v>1.018175408118166</v>
       </c>
       <c r="M22">
-        <v>1.078272239759763</v>
+        <v>1.023093481894287</v>
       </c>
       <c r="N22">
-        <v>1.024660434968086</v>
+        <v>1.008555497378539</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.057024821750628</v>
+        <v>0.9886313122784535</v>
       </c>
       <c r="D23">
-        <v>1.067211332416021</v>
+        <v>1.005906725067326</v>
       </c>
       <c r="E23">
-        <v>1.063662421156557</v>
+        <v>1.005287409004053</v>
       </c>
       <c r="F23">
-        <v>1.075224392636663</v>
+        <v>1.010569301868312</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042850919083668</v>
+        <v>1.045900391224006</v>
       </c>
       <c r="J23">
-        <v>1.063574614587824</v>
+        <v>1.019206720275881</v>
       </c>
       <c r="K23">
-        <v>1.070737724908126</v>
+        <v>1.021051948130859</v>
       </c>
       <c r="L23">
-        <v>1.067201452425957</v>
+        <v>1.020444442486164</v>
       </c>
       <c r="M23">
-        <v>1.078722586205044</v>
+        <v>1.025626216200877</v>
       </c>
       <c r="N23">
-        <v>1.02479198315255</v>
+        <v>1.009329552371258</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.059057551120537</v>
+        <v>1.000286623908453</v>
       </c>
       <c r="D24">
-        <v>1.069156498748108</v>
+        <v>1.016562441563573</v>
       </c>
       <c r="E24">
-        <v>1.065497717120169</v>
+        <v>1.015301695810828</v>
       </c>
       <c r="F24">
-        <v>1.077260898051076</v>
+        <v>1.021595008797205</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043302857614918</v>
+        <v>1.049601979123341</v>
       </c>
       <c r="J24">
-        <v>1.065095954946737</v>
+        <v>1.02777364494166</v>
       </c>
       <c r="K24">
-        <v>1.072414792029234</v>
+        <v>1.03030481379569</v>
       </c>
       <c r="L24">
-        <v>1.068767969352888</v>
+        <v>1.029065321486656</v>
       </c>
       <c r="M24">
-        <v>1.0804930183108</v>
+        <v>1.035253215874425</v>
       </c>
       <c r="N24">
-        <v>1.025308328737871</v>
+        <v>1.012267514412962</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.06141109986818</v>
+        <v>1.013028817648988</v>
       </c>
       <c r="D25">
-        <v>1.071410074633784</v>
+        <v>1.02824580051149</v>
       </c>
       <c r="E25">
-        <v>1.067624364784374</v>
+        <v>1.026289514514099</v>
       </c>
       <c r="F25">
-        <v>1.079621505451325</v>
+        <v>1.033693180889113</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043815930061817</v>
+        <v>1.053574066677475</v>
       </c>
       <c r="J25">
-        <v>1.066853986290042</v>
+        <v>1.037125527294581</v>
       </c>
       <c r="K25">
-        <v>1.074354742064357</v>
+        <v>1.040420907854227</v>
       </c>
       <c r="L25">
-        <v>1.070580126900414</v>
+        <v>1.038492980749941</v>
       </c>
       <c r="M25">
-        <v>1.082542398459031</v>
+        <v>1.045790037187133</v>
       </c>
       <c r="N25">
-        <v>1.025904357926871</v>
+        <v>1.015473895423245</v>
       </c>
     </row>
   </sheetData>
